--- a/medicine/Pharmacie/1847_en_santé_et_médecine/1847_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1847_en_santé_et_médecine/1847_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1847_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1847_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1847 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1847_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1847_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Canada
-George Edgeworth Fenwick est nommé apothicaire et interne en chirurgie à l'Hôpital général de Montréal[1].
+George Edgeworth Fenwick est nommé apothicaire et interne en chirurgie à l'Hôpital général de Montréal.
 Écosse
-4 novembre : première anesthésie au chloroforme réalisée par le Britannique James Young Simpson[2],[3].
+4 novembre : première anesthésie au chloroforme réalisée par le Britannique James Young Simpson,.
 Hongrie
-Ignace Philippe Semmelweis découvre l'utilité du lavage des mains en milieu obstétrical à la suite de la mort de son ami Jakob Kolletschka (en), professeur d'anatomie : Kolletschka meurt d'une infection après s'être blessé accidentellement au doigt avec un scalpel, au cours de la dissection d'un cadavre. Son autopsie révèle une pathologie identique à celle des femmes mortes de la fièvre puerpérale[4].
+Ignace Philippe Semmelweis découvre l'utilité du lavage des mains en milieu obstétrical à la suite de la mort de son ami Jakob Kolletschka (en), professeur d'anatomie : Kolletschka meurt d'une infection après s'être blessé accidentellement au doigt avec un scalpel, au cours de la dissection d'un cadavre. Son autopsie révèle une pathologie identique à celle des femmes mortes de la fièvre puerpérale.
 Irlande
-Grande Famine en Irlande[5].</t>
+Grande Famine en Irlande.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1847_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1847_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Joseph-François Malgaigne, Traité des fractures et des luxations, J. B. Baillière, vol. 1
 Ignace Philippe Semmelweis : Höchst Wichtige Erfahrungen über die Aetiologie der Gebaranstalten epidemischen Puerperalfilber (« Les plus importantes découvertes sur l’étiologie de la fièvre puerpérale épidémique »),  Vienne. Il prouve ainsi la nature septicémique de cette fièvre et les données de sa contagiosité.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1847_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1847_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>7 mars : Paul Reclus (mort en 1914), chirurgien français, ayant vulgarisé l'usage de la cocaïne comme anesthésique local et décrit la mastose.
 13 avril : Jules Grandclément (mort en 1935), médecin français.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1847_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1847_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,9 +633,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4 février : Henri Dutrochet (né en 1776), médecin, botaniste et physiologiste français[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 février : Henri Dutrochet (né en 1776), médecin, botaniste et physiologiste français.
 3 juillet : Étienne Pariset (né en 1770), médecin français.
 7 décembre : Robert Liston (né en 1794), chirurgien britannique.</t>
         </is>
